--- a/bl_resources/Resources/Maket.xlsx
+++ b/bl_resources/Resources/Maket.xlsx
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bl_resources/Resources/Maket.xlsx
+++ b/bl_resources/Resources/Maket.xlsx
@@ -74,7 +74,7 @@
     <t>Х7, Валюта баланса</t>
   </si>
   <si>
-    <t>Х6, Внеоборотные активы</t>
+    <t>Х6,Собственный капитал - внеоборотные активы</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
